--- a/Data/aearep-659/candidatepackages.xlsx
+++ b/Data/aearep-659/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -28,12 +28,12 @@
     <t>missing</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>mpi</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>adjacent</t>
   </si>
   <si>
@@ -61,16 +61,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-659</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-659/117882/01_Stata/prog</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>00_wagner_luy_roses.do</t>
@@ -157,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -169,7 +163,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -181,7 +175,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -193,10 +187,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C5">
-        <v>0.16644562780857086</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D5"/>
     </row>
@@ -205,10 +199,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="C6">
-        <v>0.18733422458171844</v>
+        <v>0.17289255559444427</v>
       </c>
       <c r="D6"/>
     </row>
@@ -217,10 +211,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C7">
-        <v>0.21684350073337555</v>
+        <v>0.22611570358276367</v>
       </c>
       <c r="D7"/>
     </row>
@@ -229,10 +223,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C8">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D8"/>
     </row>
@@ -241,10 +235,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C9">
-        <v>0.51889920234680176</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D9"/>
     </row>
@@ -253,10 +247,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1745</v>
+        <v>1937</v>
       </c>
       <c r="C10">
-        <v>0.57858091592788696</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D10"/>
     </row>
@@ -265,10 +259,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C11">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D11"/>
     </row>
@@ -278,7 +272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -286,7 +280,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -294,63 +288,55 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
